--- a/biology/Botanique/Saccharum_ravennae/Saccharum_ravennae.xlsx
+++ b/biology/Botanique/Saccharum_ravennae/Saccharum_ravennae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saccharum ravennae est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire du bassin méditerranéen et d'Eurasie, introduite en Amérique du Nord.
 Certains auteurs acceptent encore le nom scientifique synonyme de Erianthus ravennae. De récentes études proposent, au contraire, de placer cette espèce dans un nouveau genre, Tripidium. 
@@ -514,11 +526,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Saccharum ravennae a été décrite par Linné et publiée en 1774 dans Systema Vegetabilium. Editio decima tertia 2: 88[1].
-Synonymes
-Selon Catalogue of Life                                   (16 avril 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Saccharum ravennae a été décrite par Linné et publiée en 1774 dans Systema Vegetabilium. Editio decima tertia 2: 88.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (16 avril 2017) :
 Agrostis ravennae (L.) P.Beauv.
 Andropogon caudatus M.Bieb., nom. nud.
 Andropogon ravennae L.
@@ -540,38 +589,75 @@
 Saccharum parviflorum (Pilg.) Pilg.
 Tripidium ravennae (L.) H.Scholz
 Tripidium ravennaesubsp. parviflorum (Pilg.) H.Scholz
-Liste des sous-espèces
-Selon Tropicos                                           (16 avril 2017)[3] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (16 avril 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Saccharum ravennae subsp. parviflorum (Pilg.) Maire
 sous-espèce Saccharum ravennae subsp. ravennae</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Saccharum_ravennae</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saccharum_ravennae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées vivaces, cespiteuses, formant des touffes denses, aux tiges robustes de 2 à 3 mètres de long sur 1,5 cm de diamètre. les nœuds inférieurs, jaunâtres, sont villeux, tandis qu'ils sont glabres sous l'inflorescence. 
 Les feuilles présentent une ligule de 0,5 à 2,5 mm, tronquée ou obtuse, et un limbe foliaire plan, à la nervure médiane blanche très marquée, avec une marge en dents de scie, pouvant atteindre 125 cm de long sur 2 cm de large pour les feuilles basales, plus court pour les feuilles caulinaires.
@@ -580,80 +666,227 @@
 Les glumes,  aiguës ou acuminées. La lemme membraneuse, aiguë, porte une arête de 2,5 à 5 mm de long sur les fleurons hermaphrodites. 
 Les anthères, au nombre de trois, ont 1,8 à 2,5 mm de long. 
 Les fruits sont des caryopses oblongs de 1,5 mm de long sur 0,6 mm de large. 
-La plante fleurit de mai à octobre dans l'hémisphère nord[4],[5] et de septembre à octobre sur le littoral méditerranéen[6].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Saccharum_ravennae</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saccharum_ravennae</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+La plante fleurit de mai à octobre dans l'hémisphère nord, et de septembre à octobre sur le littoral méditerranéen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Saccharum ravennae a une aire de répartition originelle qui couvre le bassin méditerranéen (Europe méridionale, de l'Espagne  à la Grèce, Afrique du Nord, du Maroc à la Libye, et Proche-Orient, et s'étend vers l'est sur le Moyen-Orient, l'Asie centrale, le sous-continent indien (Nord-Ouest de l'Inde, Pakistan) et la Chine (Xinjiang).
-L'espèce a été introduite en Amérique du Nord (États-Unis), ainsi qu'en Australie et au Japon[5].
-La canne d'Italie préfère les sols humides et les substrat grossiers tels que les bancs de graviers. Son implantation est favorisée par les zones riveraines des cours d'eau, les marges des zones humides et les plaines inondables. L'espèce est relativement tolérante au froid et peut supporter des périodes de gel régulières[7].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Saccharum_ravennae</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Saccharum_ravennae</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+L'espèce a été introduite en Amérique du Nord (États-Unis), ainsi qu'en Australie et au Japon.
+La canne d'Italie préfère les sols humides et les substrat grossiers tels que les bancs de graviers. Son implantation est favorisée par les zones riveraines des cours d'eau, les marges des zones humides et les plaines inondables. L'espèce est relativement tolérante au froid et peut supporter des périodes de gel régulières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alimentation animale
-Dans son aire d'origine, Saccharum ravennae est une plante fourragère de faible valeur. En Chine les jeunes feuilles sont utilisées comme fourrage. Des études ont été conduites au Japon sur ce type d'utilisation de la plante[5].
-Matériau
-Les tiges fortes sont parfois employées pour la construction de huttes[5],[8].
-Lutte contre l'érosion
-Ses touffes robustes peuvent servir dans la lutte contre l'érosion, et notamment à la restauration et au maintien des rives des cours d'eau dans la région méditerranéenne[9].
-Plante ornementale
-Saccharum ravennae est une plante ornementale appréciée pour ses grandes panicules florales plumeuses, à l'instar de l'herbe de la Pampa
-Production de biomasse
-Comme d'autres graminées de grande taille, Saccharum ravennae  a été testée pour la production de biomasse, et même si son rendement est inférieur à celui d'autres espèces, il atteint tout de même 10 tonnes par hectare en moyenne[5].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alimentation animale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son aire d'origine, Saccharum ravennae est une plante fourragère de faible valeur. En Chine les jeunes feuilles sont utilisées comme fourrage. Des études ont été conduites au Japon sur ce type d'utilisation de la plante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Matériau</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges fortes sont parfois employées pour la construction de huttes,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Lutte contre l'érosion</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses touffes robustes peuvent servir dans la lutte contre l'érosion, et notamment à la restauration et au maintien des rives des cours d'eau dans la région méditerranéenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Plante ornementale</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saccharum ravennae est une plante ornementale appréciée pour ses grandes panicules florales plumeuses, à l'instar de l'herbe de la Pampa
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saccharum_ravennae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Production de biomasse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme d'autres graminées de grande taille, Saccharum ravennae  a été testée pour la production de biomasse, et même si son rendement est inférieur à celui d'autres espèces, il atteint tout de même 10 tonnes par hectare en moyenne.
 </t>
         </is>
       </c>
